--- a/yangpengfei/服务器部署情况20190516.xlsx
+++ b/yangpengfei/服务器部署情况20190516.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView minimized="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="glorycloud安装工具" sheetId="3" r:id="rId1"/>
@@ -3542,7 +3542,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
